--- a/Excel-XLSX/UN-TRT.xlsx
+++ b/Excel-XLSX/UN-TRT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>uS08Ag</t>
+    <t>E7G8Hu</t>
   </si>
   <si>
     <t>2007</t>
@@ -1347,24 +1347,24 @@
     <t>261</t>
   </si>
   <si>
+    <t>1216</t>
+  </si>
+  <si>
     <t>262</t>
   </si>
   <si>
-    <t>2034</t>
-  </si>
-  <si>
     <t>263</t>
   </si>
   <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
     <t>264</t>
   </si>
   <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
     <t>265</t>
   </si>
   <si>
@@ -1380,12 +1380,12 @@
     <t>269</t>
   </si>
   <si>
+    <t>516</t>
+  </si>
+  <si>
     <t>270</t>
   </si>
   <si>
-    <t>570</t>
-  </si>
-  <si>
     <t>271</t>
   </si>
   <si>
@@ -1401,34 +1401,25 @@
     <t>275</t>
   </si>
   <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
     <t>276</t>
   </si>
   <si>
     <t>277</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>3011</t>
-  </si>
-  <si>
-    <t>27690</t>
-  </si>
-  <si>
-    <t>5517</t>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>18538</t>
+  </si>
+  <si>
+    <t>7922</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1804,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V282"/>
+  <dimension ref="A1:V278"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -19338,10 +19329,10 @@
         <v>31</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="O258" s="2" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="P258" s="2" t="s">
         <v>33</v>
@@ -19477,7 +19468,7 @@
         <v>33</v>
       </c>
       <c r="O260" s="2" t="s">
-        <v>269</v>
+        <v>117</v>
       </c>
       <c r="P260" s="2" t="s">
         <v>33</v>
@@ -19518,16 +19509,16 @@
         <v>438</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>28</v>
@@ -19542,10 +19533,10 @@
         <v>31</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O261" s="2" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="P261" s="2" t="s">
         <v>33</v>
@@ -19586,16 +19577,16 @@
         <v>438</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>28</v>
@@ -19610,10 +19601,10 @@
         <v>31</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="O262" s="2" t="s">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="P262" s="2" t="s">
         <v>33</v>
@@ -19648,22 +19639,22 @@
         <v>22</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="J263" s="2" t="s">
         <v>28</v>
@@ -19678,10 +19669,10 @@
         <v>31</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="O263" s="2" t="s">
-        <v>444</v>
+        <v>167</v>
       </c>
       <c r="P263" s="2" t="s">
         <v>33</v>
@@ -19722,16 +19713,16 @@
         <v>438</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>227</v>
+        <v>446</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>228</v>
+        <v>447</v>
       </c>
       <c r="J264" s="2" t="s">
         <v>28</v>
@@ -19749,7 +19740,7 @@
         <v>33</v>
       </c>
       <c r="O264" s="2" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="P264" s="2" t="s">
         <v>33</v>
@@ -19784,22 +19775,22 @@
         <v>22</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>447</v>
+        <v>47</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>448</v>
+        <v>48</v>
       </c>
       <c r="J265" s="2" t="s">
         <v>28</v>
@@ -19817,7 +19808,7 @@
         <v>33</v>
       </c>
       <c r="O265" s="2" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="P265" s="2" t="s">
         <v>33</v>
@@ -19858,16 +19849,16 @@
         <v>438</v>
       </c>
       <c r="F266" s="2" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="J266" s="2" t="s">
         <v>28</v>
@@ -19885,7 +19876,7 @@
         <v>33</v>
       </c>
       <c r="O266" s="2" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="P266" s="2" t="s">
         <v>33</v>
@@ -19926,16 +19917,16 @@
         <v>438</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="J267" s="2" t="s">
         <v>28</v>
@@ -19950,10 +19941,10 @@
         <v>31</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O267" s="2" t="s">
-        <v>44</v>
+        <v>193</v>
       </c>
       <c r="P267" s="2" t="s">
         <v>33</v>
@@ -19994,16 +19985,16 @@
         <v>438</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>212</v>
+        <v>54</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="J268" s="2" t="s">
         <v>28</v>
@@ -20018,10 +20009,10 @@
         <v>31</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O268" s="2" t="s">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c r="P268" s="2" t="s">
         <v>33</v>
@@ -20062,16 +20053,16 @@
         <v>438</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>56</v>
+        <v>293</v>
       </c>
       <c r="J269" s="2" t="s">
         <v>28</v>
@@ -20089,7 +20080,7 @@
         <v>33</v>
       </c>
       <c r="O269" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="P269" s="2" t="s">
         <v>33</v>
@@ -20130,16 +20121,16 @@
         <v>438</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>293</v>
+        <v>199</v>
       </c>
       <c r="J270" s="2" t="s">
         <v>28</v>
@@ -20154,10 +20145,10 @@
         <v>31</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="O270" s="2" t="s">
-        <v>121</v>
+        <v>454</v>
       </c>
       <c r="P270" s="2" t="s">
         <v>33</v>
@@ -20192,22 +20183,22 @@
         <v>22</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>199</v>
+        <v>421</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>199</v>
+        <v>422</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>28</v>
@@ -20222,10 +20213,10 @@
         <v>31</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="O271" s="2" t="s">
-        <v>455</v>
+        <v>57</v>
       </c>
       <c r="P271" s="2" t="s">
         <v>33</v>
@@ -20266,16 +20257,16 @@
         <v>438</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>420</v>
+        <v>69</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>421</v>
+        <v>70</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>422</v>
+        <v>71</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>28</v>
@@ -20290,10 +20281,10 @@
         <v>31</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="O272" s="2" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="P272" s="2" t="s">
         <v>33</v>
@@ -20334,16 +20325,16 @@
         <v>438</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="J273" s="2" t="s">
         <v>28</v>
@@ -20361,7 +20352,7 @@
         <v>32</v>
       </c>
       <c r="O273" s="2" t="s">
-        <v>295</v>
+        <v>118</v>
       </c>
       <c r="P273" s="2" t="s">
         <v>33</v>
@@ -20402,16 +20393,16 @@
         <v>438</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>189</v>
+        <v>330</v>
       </c>
       <c r="J274" s="2" t="s">
         <v>28</v>
@@ -20426,10 +20417,10 @@
         <v>31</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O274" s="2" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="P274" s="2" t="s">
         <v>33</v>
@@ -20470,16 +20461,16 @@
         <v>438</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="J275" s="2" t="s">
         <v>28</v>
@@ -20494,10 +20485,10 @@
         <v>31</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O275" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="P275" s="2" t="s">
         <v>33</v>
@@ -20538,16 +20529,16 @@
         <v>438</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>301</v>
+        <v>31</v>
       </c>
       <c r="J276" s="2" t="s">
         <v>28</v>
@@ -20565,7 +20556,7 @@
         <v>33</v>
       </c>
       <c r="O276" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P276" s="2" t="s">
         <v>33</v>
@@ -20580,13 +20571,13 @@
         <v>33</v>
       </c>
       <c r="T276" s="2" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
       <c r="U276" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V276" s="2" t="s">
-        <v>33</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277">
@@ -20600,22 +20591,22 @@
         <v>22</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E277" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="J277" s="2" t="s">
         <v>28</v>
@@ -20633,7 +20624,7 @@
         <v>33</v>
       </c>
       <c r="O277" s="2" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="P277" s="2" t="s">
         <v>33</v>
@@ -20668,22 +20659,22 @@
         <v>22</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>438</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="J278" s="2" t="s">
         <v>28</v>
@@ -20698,10 +20689,10 @@
         <v>31</v>
       </c>
       <c r="N278" s="2" t="s">
-        <v>131</v>
+        <v>465</v>
       </c>
       <c r="O278" s="2" t="s">
-        <v>137</v>
+        <v>466</v>
       </c>
       <c r="P278" s="2" t="s">
         <v>33</v>
@@ -20718,282 +20709,10 @@
       <c r="T278" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U278" s="1" t="s">
-        <v>34</v>
+      <c r="U278" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="V278" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J279" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K279" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L279" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M279" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O279" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T279" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U279" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V279" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F280" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J280" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K280" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L280" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M280" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S280" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T280" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="U280" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V280" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E281" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F281" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G281" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J281" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K281" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L281" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M281" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O281" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T281" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U281" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V281" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E282" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F282" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G282" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="J282" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K282" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L282" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M282" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N282" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="O282" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="P282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T282" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U282" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="V282" s="2" t="s">
         <v>33</v>
       </c>
     </row>
